--- a/ConvertedEqual/Minnesota_Converted.xlsx
+++ b/ConvertedEqual/Minnesota_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="274">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -801,6 +801,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y221"/>
+  <dimension ref="A1:Y233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1518,10 +1554,10 @@
         <v>0.25</v>
       </c>
       <c r="T7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -1533,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="Y7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2847,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2924,7 +2960,7 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -3001,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -3078,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="Y28">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -3155,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="Y29">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -3232,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3309,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3386,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3463,7 +3499,7 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3540,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.3846153846076923</v>
+        <v>0.4166666666583334</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3617,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="Y35">
-        <v>0.4615384615307692</v>
+        <v>0.4999999999916666</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3694,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3771,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3848,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3925,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -4002,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="41" spans="1:25">
@@ -4079,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="42" spans="1:25">
@@ -4156,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="43" spans="1:25">
@@ -4233,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="44" spans="1:25">
@@ -4310,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -4387,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -4464,7 +4500,7 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4541,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4618,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4695,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4772,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="Y50">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4849,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Y51">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4926,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -5003,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="Y53">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -5080,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -5157,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5234,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -5311,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="Y57">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -5388,7 +5424,7 @@
         <v>0</v>
       </c>
       <c r="Y58">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -5465,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5542,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="Y60">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5619,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5696,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5773,7 +5809,7 @@
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5850,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5927,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>0.8461538461461539</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -6004,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6081,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -6158,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="Y68">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -6235,7 +6271,7 @@
         <v>0</v>
       </c>
       <c r="Y69">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6312,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="Y70">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6389,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="Y71">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -6466,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="Y72">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6543,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="Y73">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6620,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="Y74">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6697,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="Y75">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6774,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="Y76">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6851,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="Y77">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6928,7 +6964,7 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7005,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="Y79">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -7082,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="Y80">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -7159,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="Y81">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -7236,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="Y82">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7313,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="Y83">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -7390,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="Y84">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -7467,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Y85">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7544,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>0.7692307692230769</v>
+        <v>0.833333333325</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7621,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -7698,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="Y88">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -7775,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="Y89">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7852,7 +7888,7 @@
         <v>0</v>
       </c>
       <c r="Y90">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -7929,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="Y91">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -8006,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="Y92">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -8083,7 +8119,7 @@
         <v>0</v>
       </c>
       <c r="Y93">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -8160,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="Y94">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -8237,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="Y95">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -8314,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="Y96">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -8391,7 +8427,7 @@
         <v>0</v>
       </c>
       <c r="Y97">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="98" spans="1:25">
@@ -8468,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="Y98">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8545,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="Y99">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8622,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="Y100">
-        <v>0.615384615376923</v>
+        <v>0.6666666666583333</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -8699,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="Y101">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8776,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="Y102">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:25">
@@ -8853,7 +8889,7 @@
         <v>0</v>
       </c>
       <c r="Y103">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -8930,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="Y104">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -9007,7 +9043,7 @@
         <v>0</v>
       </c>
       <c r="Y105">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:25">
@@ -9084,7 +9120,7 @@
         <v>0</v>
       </c>
       <c r="Y106">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -9161,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="Y107">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -9238,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="Y108">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:25">
@@ -9315,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="Y109">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -9392,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="Y110">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -9469,7 +9505,7 @@
         <v>0</v>
       </c>
       <c r="Y111">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -9546,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="Y112">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -9623,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="Y113">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -9700,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="Y114">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -9777,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="Y115">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -9854,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="Y116">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -9931,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="Y117">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -10008,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="Y118">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -10085,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="Y119">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -10162,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="Y120">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -10239,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="Y121">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -10316,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="Y122">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -10393,7 +10429,7 @@
         <v>0</v>
       </c>
       <c r="Y123">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -10470,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="Y124">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -10547,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="Y125">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="126" spans="1:25">
@@ -10624,7 +10660,7 @@
         <v>0</v>
       </c>
       <c r="Y126">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -10701,7 +10737,7 @@
         <v>0</v>
       </c>
       <c r="Y127">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -10778,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="Y128">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129" spans="1:25">
@@ -10855,7 +10891,7 @@
         <v>0</v>
       </c>
       <c r="Y129">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130" spans="1:25">
@@ -10932,7 +10968,7 @@
         <v>0</v>
       </c>
       <c r="Y130">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131" spans="1:25">
@@ -11009,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="Y131">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="132" spans="1:25">
@@ -11086,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="Y132">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -11163,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="Y133">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134" spans="1:25">
@@ -11240,7 +11276,7 @@
         <v>0</v>
       </c>
       <c r="Y134">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -11317,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="Y135">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136" spans="1:25">
@@ -11394,7 +11430,7 @@
         <v>0</v>
       </c>
       <c r="Y136">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137" spans="1:25">
@@ -11471,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="Y137">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="138" spans="1:25">
@@ -11548,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="Y138">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="139" spans="1:25">
@@ -11625,7 +11661,7 @@
         <v>0</v>
       </c>
       <c r="Y139">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="140" spans="1:25">
@@ -11702,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="Y140">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="141" spans="1:25">
@@ -11779,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="Y141">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="142" spans="1:25">
@@ -11856,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="Y142">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -11933,7 +11969,7 @@
         <v>0</v>
       </c>
       <c r="Y143">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="144" spans="1:25">
@@ -12010,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="Y144">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="145" spans="1:25">
@@ -12087,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="Y145">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146" spans="1:25">
@@ -12164,7 +12200,7 @@
         <v>0</v>
       </c>
       <c r="Y146">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147" spans="1:25">
@@ -12241,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="Y147">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148" spans="1:25">
@@ -12318,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="Y148">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149" spans="1:25">
@@ -12395,7 +12431,7 @@
         <v>0</v>
       </c>
       <c r="Y149">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150" spans="1:25">
@@ -12472,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="Y150">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="151" spans="1:25">
@@ -12549,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="Y151">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152" spans="1:25">
@@ -12626,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="Y152">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153" spans="1:25">
@@ -12703,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="Y153">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154" spans="1:25">
@@ -12780,7 +12816,7 @@
         <v>1</v>
       </c>
       <c r="Y154">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:25">
@@ -12857,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="Y155">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:25">
@@ -12934,7 +12970,7 @@
         <v>1</v>
       </c>
       <c r="Y156">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:25">
@@ -13011,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="Y157">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -13088,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="Y158">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:25">
@@ -13165,7 +13201,7 @@
         <v>1</v>
       </c>
       <c r="Y159">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:25">
@@ -13242,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="Y160">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:25">
@@ -13319,7 +13355,7 @@
         <v>1</v>
       </c>
       <c r="Y161">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:25">
@@ -13396,7 +13432,7 @@
         <v>1</v>
       </c>
       <c r="Y162">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:25">
@@ -13473,7 +13509,7 @@
         <v>1</v>
       </c>
       <c r="Y163">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:25">
@@ -13550,7 +13586,7 @@
         <v>1</v>
       </c>
       <c r="Y164">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:25">
@@ -13627,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="Y165">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:25">
@@ -13704,7 +13740,7 @@
         <v>1</v>
       </c>
       <c r="Y166">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:25">
@@ -13781,7 +13817,7 @@
         <v>1</v>
       </c>
       <c r="Y167">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:25">
@@ -13858,7 +13894,7 @@
         <v>1</v>
       </c>
       <c r="Y168">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:25">
@@ -13935,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="Y169">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:25">
@@ -14012,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="Y170">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -14089,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="Y171">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -14166,7 +14202,7 @@
         <v>1</v>
       </c>
       <c r="Y172">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:25">
@@ -14243,7 +14279,7 @@
         <v>1</v>
       </c>
       <c r="Y173">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -14320,7 +14356,7 @@
         <v>1</v>
       </c>
       <c r="Y174">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:25">
@@ -14397,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="Y175">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14474,7 +14510,7 @@
         <v>1</v>
       </c>
       <c r="Y176">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -14551,7 +14587,7 @@
         <v>1</v>
       </c>
       <c r="Y177">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -14628,7 +14664,7 @@
         <v>1</v>
       </c>
       <c r="Y178">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -14705,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="Y179">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:25">
@@ -14782,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="Y180">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:25">
@@ -14859,7 +14895,7 @@
         <v>1</v>
       </c>
       <c r="Y181">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:25">
@@ -14936,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="Y182">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:25">
@@ -15013,7 +15049,7 @@
         <v>1</v>
       </c>
       <c r="Y183">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:25">
@@ -15090,7 +15126,7 @@
         <v>1</v>
       </c>
       <c r="Y184">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:25">
@@ -15167,7 +15203,7 @@
         <v>1</v>
       </c>
       <c r="Y185">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:25">
@@ -15244,7 +15280,7 @@
         <v>1</v>
       </c>
       <c r="Y186">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:25">
@@ -15321,7 +15357,7 @@
         <v>1</v>
       </c>
       <c r="Y187">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:25">
@@ -15398,7 +15434,7 @@
         <v>1</v>
       </c>
       <c r="Y188">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:25">
@@ -15475,7 +15511,7 @@
         <v>1</v>
       </c>
       <c r="Y189">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:25">
@@ -15552,7 +15588,7 @@
         <v>1</v>
       </c>
       <c r="Y190">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:25">
@@ -15629,7 +15665,7 @@
         <v>1</v>
       </c>
       <c r="Y191">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:25">
@@ -15706,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="Y192">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:25">
@@ -15783,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="Y193">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:25">
@@ -15860,7 +15896,7 @@
         <v>1</v>
       </c>
       <c r="Y194">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:25">
@@ -15937,7 +15973,7 @@
         <v>1</v>
       </c>
       <c r="Y195">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:25">
@@ -16014,7 +16050,7 @@
         <v>1</v>
       </c>
       <c r="Y196">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:25">
@@ -16091,7 +16127,7 @@
         <v>1</v>
       </c>
       <c r="Y197">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:25">
@@ -16168,7 +16204,7 @@
         <v>1</v>
       </c>
       <c r="Y198">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:25">
@@ -16245,7 +16281,7 @@
         <v>1</v>
       </c>
       <c r="Y199">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:25">
@@ -16322,7 +16358,7 @@
         <v>1</v>
       </c>
       <c r="Y200">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:25">
@@ -16399,7 +16435,7 @@
         <v>1</v>
       </c>
       <c r="Y201">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:25">
@@ -16476,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="Y202">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:25">
@@ -16553,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="Y203">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:25">
@@ -16630,7 +16666,7 @@
         <v>1</v>
       </c>
       <c r="Y204">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:25">
@@ -16707,7 +16743,7 @@
         <v>1</v>
       </c>
       <c r="Y205">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:25">
@@ -16784,7 +16820,7 @@
         <v>1</v>
       </c>
       <c r="Y206">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:25">
@@ -16861,7 +16897,7 @@
         <v>1</v>
       </c>
       <c r="Y207">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:25">
@@ -16938,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="Y208">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:25">
@@ -17015,7 +17051,7 @@
         <v>1</v>
       </c>
       <c r="Y209">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:25">
@@ -17092,7 +17128,7 @@
         <v>1</v>
       </c>
       <c r="Y210">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:25">
@@ -17169,7 +17205,7 @@
         <v>1</v>
       </c>
       <c r="Y211">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:25">
@@ -17246,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="Y212">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:25">
@@ -17323,7 +17359,7 @@
         <v>1</v>
       </c>
       <c r="Y213">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:25">
@@ -17400,7 +17436,7 @@
         <v>1</v>
       </c>
       <c r="Y214">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:25">
@@ -17477,7 +17513,7 @@
         <v>1</v>
       </c>
       <c r="Y215">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:25">
@@ -17554,7 +17590,7 @@
         <v>1</v>
       </c>
       <c r="Y216">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:25">
@@ -17631,7 +17667,7 @@
         <v>1</v>
       </c>
       <c r="Y217">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:25">
@@ -17708,7 +17744,7 @@
         <v>1</v>
       </c>
       <c r="Y218">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:25">
@@ -17785,7 +17821,7 @@
         <v>1</v>
       </c>
       <c r="Y219">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:25">
@@ -17862,7 +17898,7 @@
         <v>1</v>
       </c>
       <c r="Y220">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:25">
@@ -17939,7 +17975,931 @@
         <v>1</v>
       </c>
       <c r="Y221">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:25">
+      <c r="A222" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>1</v>
+      </c>
+      <c r="X222">
+        <v>1</v>
+      </c>
+      <c r="Y222">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:25">
+      <c r="A223" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>1</v>
+      </c>
+      <c r="X223">
+        <v>1</v>
+      </c>
+      <c r="Y223">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:25">
+      <c r="A224" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>1</v>
+      </c>
+      <c r="X224">
+        <v>1</v>
+      </c>
+      <c r="Y224">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:25">
+      <c r="A225" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>1</v>
+      </c>
+      <c r="X225">
+        <v>1</v>
+      </c>
+      <c r="Y225">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:25">
+      <c r="A226" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>1</v>
+      </c>
+      <c r="X226">
+        <v>1</v>
+      </c>
+      <c r="Y226">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:25">
+      <c r="A227" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>1</v>
+      </c>
+      <c r="X227">
+        <v>1</v>
+      </c>
+      <c r="Y227">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:25">
+      <c r="A228" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>1</v>
+      </c>
+      <c r="X228">
+        <v>1</v>
+      </c>
+      <c r="Y228">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:25">
+      <c r="A229" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>1</v>
+      </c>
+      <c r="X229">
+        <v>1</v>
+      </c>
+      <c r="Y229">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:25">
+      <c r="A230" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>1</v>
+      </c>
+      <c r="X230">
+        <v>1</v>
+      </c>
+      <c r="Y230">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:25">
+      <c r="A231" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>1</v>
+      </c>
+      <c r="X231">
+        <v>1</v>
+      </c>
+      <c r="Y231">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:25">
+      <c r="A232" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>1</v>
+      </c>
+      <c r="X232">
+        <v>1</v>
+      </c>
+      <c r="Y232">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:25">
+      <c r="A233" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>1</v>
+      </c>
+      <c r="X233">
+        <v>1</v>
+      </c>
+      <c r="Y233">
+        <v>0.3333333333333333</v>
       </c>
     </row>
   </sheetData>
